--- a/Evidencia/CapturasEvidencia.xlsx
+++ b/Evidencia/CapturasEvidencia.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/Evidencia/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC22ADE-2BEE-4728-B35D-B46825A3C324}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC - 11" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +24,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Evidencia TC - 11</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +59,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +181,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>427907</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8C391F-1ACB-CDA3-3B74-911865E4D1AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="285750"/>
+          <a:ext cx="5742857" cy="3923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +524,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Evidencia/CapturasEvidencia.xlsx
+++ b/Evidencia/CapturasEvidencia.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/Evidencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC22ADE-2BEE-4728-B35D-B46825A3C324}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0804B47F-61F0-4F90-B082-ECA7DDD8065A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TC - 11" sheetId="1" r:id="rId1"/>
+    <sheet name="Evidencias" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Evidencia TC - 11</t>
+  </si>
+  <si>
+    <t>Evidencia TC - 13</t>
+  </si>
+  <si>
+    <t>Del lado izquierdo se observa la lista de álbumes que Facebook Lite puede acceder.</t>
+  </si>
+  <si>
+    <t>Del lado derecho se muestran los álbumes creados, visibles desde la galería del celular.</t>
   </si>
 </sst>
 </file>
@@ -51,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -145,18 +154,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -165,6 +207,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -188,22 +245,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>427907</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>18559</xdr:rowOff>
+      <xdr:colOff>438950</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8C391F-1ACB-CDA3-3B74-911865E4D1AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBBDD09-CD20-A501-D859-C998B62673B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -219,42 +276,112 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="285750"/>
-          <a:ext cx="5742857" cy="3923809"/>
+          <a:off x="190500" y="219075"/>
+          <a:ext cx="5734850" cy="5268060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:shade val="85000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="88900" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="twoPt" dir="t">
-            <a:rot lat="0" lon="0" rev="7200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="25400" h="19050"/>
-          <a:contourClr>
-            <a:srgbClr val="FFFFFF"/>
-          </a:contourClr>
-        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171577</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6624B3-71A7-2EE6-EFBE-BA14E67A2C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267577" y="231000"/>
+          <a:ext cx="4002278" cy="8893950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{901F6940-BA81-50D1-8559-547B9DBA35AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15449550" y="238125"/>
+          <a:ext cx="4526280" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -525,295 +652,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="25" max="25" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="11"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="8"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="Z3" s="1"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="Z4" s="1"/>
+      <c r="AG4" s="2"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="Z5" s="1"/>
+      <c r="AG5" s="2"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="V6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="1"/>
+      <c r="AG6" s="2"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="1"/>
+      <c r="AG7" s="2"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="1"/>
+      <c r="AG8" s="2"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="Z9" s="1"/>
+      <c r="AG9" s="2"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="Z10" s="1"/>
+      <c r="AG10" s="2"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="Z11" s="1"/>
+      <c r="AG11" s="2"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="Z12" s="1"/>
+      <c r="AG12" s="2"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="Z13" s="1"/>
+      <c r="AG13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="Z14" s="1"/>
+      <c r="AG14" s="2"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="Z15" s="1"/>
+      <c r="AG15" s="2"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="Q16" s="2"/>
+      <c r="Z16" s="1"/>
+      <c r="AG16" s="2"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="Z17" s="1"/>
+      <c r="AG17" s="2"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="Q18" s="2"/>
+      <c r="Z18" s="1"/>
+      <c r="AG18" s="2"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="Q19" s="2"/>
+      <c r="Z19" s="1"/>
+      <c r="AG19" s="2"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="Q20" s="2"/>
+      <c r="Z20" s="1"/>
+      <c r="AG20" s="2"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="Q21" s="2"/>
+      <c r="Z21" s="1"/>
+      <c r="AG21" s="2"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="Q22" s="2"/>
+      <c r="Z22" s="1"/>
+      <c r="AG22" s="2"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+      <c r="Q23" s="2"/>
+      <c r="Z23" s="1"/>
+      <c r="AG23" s="2"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+      <c r="Q24" s="2"/>
+      <c r="Z24" s="1"/>
+      <c r="AG24" s="2"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+      <c r="Q25" s="2"/>
+      <c r="Z25" s="1"/>
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+      <c r="Q26" s="2"/>
+      <c r="Z26" s="1"/>
+      <c r="AG26" s="2"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+      <c r="Q27" s="2"/>
+      <c r="Z27" s="1"/>
+      <c r="AG27" s="2"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+      <c r="Q28" s="2"/>
+      <c r="Z28" s="1"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="1"/>
+      <c r="Q29" s="2"/>
+      <c r="Z29" s="1"/>
+      <c r="AG29" s="2"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+      <c r="Q30" s="2"/>
+      <c r="Z30" s="1"/>
+      <c r="AG30" s="2"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+      <c r="Q31" s="2"/>
+      <c r="Z31" s="1"/>
+      <c r="AG31" s="2"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+      <c r="Q32" s="2"/>
+      <c r="Z32" s="1"/>
+      <c r="AG32" s="2"/>
+    </row>
+    <row r="33" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+      <c r="Q33" s="2"/>
+      <c r="Z33" s="1"/>
+      <c r="AG33" s="2"/>
+    </row>
+    <row r="34" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+      <c r="Q34" s="2"/>
+      <c r="Z34" s="1"/>
+      <c r="AG34" s="2"/>
+    </row>
+    <row r="35" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+      <c r="Q35" s="2"/>
+      <c r="Z35" s="1"/>
+      <c r="AG35" s="2"/>
+    </row>
+    <row r="36" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+      <c r="Q36" s="2"/>
+      <c r="Z36" s="1"/>
+      <c r="AG36" s="2"/>
+    </row>
+    <row r="37" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+      <c r="Q37" s="2"/>
+      <c r="Z37" s="1"/>
+      <c r="AG37" s="2"/>
+    </row>
+    <row r="38" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+      <c r="Q38" s="2"/>
+      <c r="Z38" s="1"/>
+      <c r="AG38" s="2"/>
+    </row>
+    <row r="39" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K39" s="1"/>
+      <c r="Q39" s="2"/>
+      <c r="Z39" s="1"/>
+      <c r="AG39" s="2"/>
+    </row>
+    <row r="40" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K40" s="1"/>
+      <c r="Q40" s="2"/>
+      <c r="Z40" s="1"/>
+      <c r="AG40" s="2"/>
+    </row>
+    <row r="41" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K41" s="1"/>
+      <c r="Q41" s="2"/>
+      <c r="Z41" s="1"/>
+      <c r="AG41" s="2"/>
+    </row>
+    <row r="42" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+      <c r="Q42" s="2"/>
+      <c r="Z42" s="1"/>
+      <c r="AG42" s="2"/>
+    </row>
+    <row r="43" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+      <c r="Q43" s="2"/>
+      <c r="Z43" s="1"/>
+      <c r="AG43" s="2"/>
+    </row>
+    <row r="44" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K44" s="1"/>
+      <c r="Q44" s="2"/>
+      <c r="Z44" s="1"/>
+      <c r="AG44" s="2"/>
+    </row>
+    <row r="45" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+      <c r="Q45" s="2"/>
+      <c r="Z45" s="1"/>
+      <c r="AG45" s="2"/>
+    </row>
+    <row r="46" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+      <c r="Q46" s="2"/>
+      <c r="Z46" s="1"/>
+      <c r="AG46" s="2"/>
+    </row>
+    <row r="47" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+      <c r="Q47" s="2"/>
+      <c r="Z47" s="1"/>
+      <c r="AG47" s="2"/>
+    </row>
+    <row r="48" spans="11:33" x14ac:dyDescent="0.25">
+      <c r="K48" s="3"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="5"/>
+      <c r="Z48" s="1"/>
+      <c r="AG48" s="2"/>
+    </row>
+    <row r="49" spans="26:33" x14ac:dyDescent="0.25">
+      <c r="Z49" s="1"/>
+      <c r="AG49" s="2"/>
+    </row>
+    <row r="50" spans="26:33" x14ac:dyDescent="0.25">
+      <c r="Z50" s="1"/>
+      <c r="AG50" s="2"/>
+    </row>
+    <row r="51" spans="26:33" x14ac:dyDescent="0.25">
+      <c r="Z51" s="1"/>
+      <c r="AG51" s="2"/>
+    </row>
+    <row r="52" spans="26:33" x14ac:dyDescent="0.25">
+      <c r="Z52" s="1"/>
+      <c r="AG52" s="2"/>
+    </row>
+    <row r="53" spans="26:33" x14ac:dyDescent="0.25">
+      <c r="Z53" s="1"/>
+      <c r="AG53" s="2"/>
+    </row>
+    <row r="54" spans="26:33" x14ac:dyDescent="0.25">
+      <c r="Z54" s="1"/>
+      <c r="AG54" s="2"/>
+    </row>
+    <row r="55" spans="26:33" x14ac:dyDescent="0.25">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:Y1"/>
+    <mergeCell ref="R2:U5"/>
+    <mergeCell ref="V6:Y8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Evidencia/CapturasEvidencia.xlsx
+++ b/Evidencia/CapturasEvidencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/Evidencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0804B47F-61F0-4F90-B082-ECA7DDD8065A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9267069E-5869-4085-88F3-85C14673212F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Evidencia TC - 11</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Del lado derecho se muestran los álbumes creados, visibles desde la galería del celular.</t>
+  </si>
+  <si>
+    <t>Evidencia TC - 14</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -223,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,6 +381,56 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15449550" y="238125"/>
+          <a:ext cx="4526280" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ADBFEB-DF67-E4D9-82DB-A848748E818F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="10782300"/>
           <a:ext cx="4526280" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -652,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:Y8"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,31 +1104,31 @@
       <c r="Z48" s="1"/>
       <c r="AG48" s="2"/>
     </row>
-    <row r="49" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Z49" s="1"/>
       <c r="AG49" s="2"/>
     </row>
-    <row r="50" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Z50" s="1"/>
       <c r="AG50" s="2"/>
     </row>
-    <row r="51" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Z51" s="1"/>
       <c r="AG51" s="2"/>
     </row>
-    <row r="52" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Z52" s="1"/>
       <c r="AG52" s="2"/>
     </row>
-    <row r="53" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Z53" s="1"/>
       <c r="AG53" s="2"/>
     </row>
-    <row r="54" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Z54" s="1"/>
       <c r="AG54" s="2"/>
     </row>
-    <row r="55" spans="26:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Z55" s="3"/>
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
@@ -1084,12 +1138,687 @@
       <c r="AF55" s="4"/>
       <c r="AG55" s="5"/>
     </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="K1:Y1"/>
     <mergeCell ref="R2:U5"/>
     <mergeCell ref="V6:Y8"/>
+    <mergeCell ref="A56:J56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
